--- a/regionseng/4/environmental protection/environmental protection.xlsx
+++ b/regionseng/4/environmental protection/environmental protection.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BF0466-8B35-4CF0-84BE-F6343B0CDC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Adjara AR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -100,12 +99,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,13 +168,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -264,45 +256,36 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,23 +380,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -449,23 +415,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -641,74 +590,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="9" width="9.7109375" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.6640625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="9" width="9.6640625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="15">
         <v>2013</v>
@@ -728,14 +681,20 @@
       <c r="G5" s="15">
         <v>2018</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>2019</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="20">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -763,8 +722,14 @@
       <c r="I6" s="6">
         <v>58828</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="6">
+        <v>52809</v>
+      </c>
+      <c r="K6" s="6">
+        <v>59975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -786,14 +751,20 @@
       <c r="G7" s="6">
         <v>1250</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="6">
         <v>1257.2</v>
       </c>
       <c r="I7" s="6">
         <v>663</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="6">
+        <v>1017.5</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -821,8 +792,14 @@
       <c r="I8" s="16">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="16">
+        <v>5</v>
+      </c>
+      <c r="K8" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -847,11 +824,17 @@
       <c r="H9" s="16">
         <v>100</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="16">
+        <v>190</v>
+      </c>
+      <c r="K9" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -867,20 +850,26 @@
       <c r="E10" s="17">
         <v>6.4</v>
       </c>
-      <c r="F10" s="17">
-        <v>6.2</v>
-      </c>
-      <c r="G10" s="17">
-        <v>6.2</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="H10" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I10" s="17">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K10" s="7">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
@@ -888,12 +877,14 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -909,20 +900,26 @@
       <c r="E12" s="17">
         <v>5.2</v>
       </c>
-      <c r="F12" s="17">
-        <v>4.7</v>
-      </c>
-      <c r="G12" s="17">
-        <v>4.7</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="F12" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="7">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -938,47 +935,55 @@
       <c r="E13" s="18">
         <v>1.2</v>
       </c>
-      <c r="F13" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="H13" s="18">
+      <c r="F13" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H13" s="8">
         <v>1.2</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="K13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-    </row>
-    <row r="16" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="19"/>
@@ -987,10 +992,12 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>8</v>
       </c>
@@ -1002,8 +1009,9 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>9</v>
       </c>
@@ -1015,36 +1023,37 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="26"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F22" s="13"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regionseng/4/environmental protection/environmental protection.xlsx
+++ b/regionseng/4/environmental protection/environmental protection.xlsx
@@ -256,16 +256,25 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -277,15 +286,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,77 +591,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="9" width="9.6640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="60.7109375" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.7109375" style="12" customWidth="1"/>
+    <col min="10" max="12" width="9.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="15">
         <v>2013</v>
@@ -681,20 +684,23 @@
       <c r="G5" s="15">
         <v>2018</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>2019</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>2020</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <v>2021</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="19">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -728,8 +734,11 @@
       <c r="K6" s="6">
         <v>59975</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="6">
+        <v>55547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -763,8 +772,11 @@
       <c r="K7" s="6">
         <v>1471</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="6">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -798,8 +810,11 @@
       <c r="K8" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -833,8 +848,11 @@
       <c r="K9" s="16">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -868,8 +886,11 @@
       <c r="K10" s="7">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
@@ -881,10 +902,11 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -918,8 +940,11 @@
       <c r="K12" s="7">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -953,107 +978,119 @@
       <c r="K13" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F22" s="13"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
